--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_20.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_20.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01060986518859863</v>
+        <v>0.0007650852203369141</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001393318176269531</v>
+        <v>0.0006248950958251953</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001609325408935547</v>
+        <v>0.006944894790649414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (1, 0), (0, 4), (1, 4), (3, 0), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [1, 0], [0, 4], [1, 4], [3, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[(0, 4), (1, 3), (1, 4), (2, 2), (2, 0), (2, 3), (2, 4), (3, 3), (3, 1), (3, 2), (3, 4), (4, 2), (0, 0), (0, 2), (0, 3), (1, 0), (1, 1), (1, 2), (2, 1), (0, 1)]</t>
+          <t>[[0, 4], [1, 3], [1, 4], [2, 2], [2, 0], [2, 3], [2, 4], [3, 3], [3, 1], [3, 2], [3, 4], [4, 2], [0, 0], [0, 2], [0, 3], [1, 0], [1, 1], [1, 2], [2, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -747,110 +747,120 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>0.9996334760619522</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0163569450378418</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01665878295898438</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
